--- a/analysis/analysis II/results/M2.xlsx
+++ b/analysis/analysis II/results/M2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/Documents/GitHub/flood-experience/analysis/analysis II/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/Desktop/results for handing in/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC18394-BB12-E647-8CF8-6CC6252494F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A601AB94-7D2C-104E-B45F-A7C77E5A23BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29400" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
   <si>
+    <t>function</t>
+  </si>
+  <si>
     <t>beta</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>Cont. Int. Hi.</t>
   </si>
   <si>
+    <t>made_safer ~ hurricane + awareness + age + homeownership</t>
+  </si>
+  <si>
     <t>Intercept</t>
   </si>
   <si>
@@ -73,44 +79,38 @@
     <t>homeownership</t>
   </si>
   <si>
-    <t>made_safer</t>
-  </si>
-  <si>
-    <t>documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">learned_routes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">supplies </t>
-  </si>
-  <si>
-    <t xml:space="preserve">made_plan </t>
-  </si>
-  <si>
-    <t>practiced_drills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alerts </t>
-  </si>
-  <si>
-    <t xml:space="preserve">family_communication </t>
-  </si>
-  <si>
-    <t xml:space="preserve">insured </t>
-  </si>
-  <si>
-    <t xml:space="preserve">involved </t>
-  </si>
-  <si>
-    <t>outcome</t>
+    <t>documents ~ hurricane + awareness + age + homeownership</t>
+  </si>
+  <si>
+    <t>learned_routes ~ hurricane + awareness + age + homeownership</t>
+  </si>
+  <si>
+    <t>supplies ~ hurricane + awareness + age + homeownership</t>
+  </si>
+  <si>
+    <t>involved ~ hurricane + awareness + age + homeownership</t>
+  </si>
+  <si>
+    <t>made_plan ~ hurricane + awareness + age + homeownership</t>
+  </si>
+  <si>
+    <t>practiced_drills ~ hurricane + awareness + age + homeownership</t>
+  </si>
+  <si>
+    <t>alerts ~ hurricane + awareness + age + homeownership</t>
+  </si>
+  <si>
+    <t>family_communication ~ hurricane + awareness + age + homeownership</t>
+  </si>
+  <si>
+    <t>insured ~ hurricane + awareness + age + homeownership</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,11 +120,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -170,13 +165,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,185 +474,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H51"/>
+      <selection activeCell="A12" sqref="A12:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>-1.53</v>
-      </c>
-      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4">
+        <v>-1.512</v>
+      </c>
+      <c r="D2" s="4">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.154</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G2">
-        <v>288.35399999999998</v>
+        <v>283.39800000000002</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="D3">
-        <v>0.01</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E3">
-        <v>0.154</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G3">
-        <v>288.35399999999998</v>
+        <v>283.39800000000002</v>
       </c>
       <c r="H3">
-        <v>0.14899999999999999</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="I3">
-        <v>5.7000000000000002E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="J3">
-        <v>2.6360000000000001</v>
+        <v>2.5329999999999999</v>
       </c>
       <c r="K3">
-        <v>8.0000000000000002E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="L3">
-        <v>3.7999999999999999E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="M3">
-        <v>0.26</v>
+        <v>0.26100000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="D4">
-        <v>3.0000000000000001E-3</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E4">
-        <v>0.154</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G4">
-        <v>288.35399999999998</v>
+        <v>283.39800000000002</v>
       </c>
       <c r="H4">
-        <v>0.14899999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="I4">
-        <v>4.9000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J4">
-        <v>3.077</v>
+        <v>2.871</v>
       </c>
       <c r="K4">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="L4">
-        <v>5.3999999999999999E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="M4">
-        <v>0.24399999999999999</v>
+        <v>0.24199999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4">
         <v>-2E-3</v>
       </c>
-      <c r="D5">
-        <v>0.59599999999999997</v>
+      <c r="D5" s="4">
+        <v>0.67500000000000004</v>
       </c>
       <c r="E5">
-        <v>0.154</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G5">
-        <v>288.35399999999998</v>
+        <v>283.39800000000002</v>
       </c>
       <c r="H5">
         <v>-1E-3</v>
@@ -666,10 +654,10 @@
         <v>1E-3</v>
       </c>
       <c r="J5">
-        <v>-0.53100000000000003</v>
+        <v>-0.41899999999999998</v>
       </c>
       <c r="K5">
-        <v>0.59599999999999997</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="L5">
         <v>-3.0000000000000001E-3</v>
@@ -681,132 +669,132 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="D6">
-        <v>0.25800000000000001</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.26500000000000001</v>
       </c>
       <c r="E6">
-        <v>0.154</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G6">
-        <v>288.35399999999998</v>
+        <v>283.39800000000002</v>
       </c>
       <c r="H6">
-        <v>5.7000000000000002E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="I6">
-        <v>0.05</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="J6">
-        <v>1.139</v>
+        <v>1.121</v>
       </c>
       <c r="K6">
-        <v>0.255</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="L6">
-        <v>-4.1000000000000002E-2</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
       <c r="M6">
-        <v>0.156</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>-1.603</v>
-      </c>
-      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-1.601</v>
+      </c>
+      <c r="D7" s="4">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.14699999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G7">
-        <v>280.85599999999999</v>
+        <v>277.267</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="D8">
-        <v>7.0999999999999994E-2</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7.8E-2</v>
       </c>
       <c r="E8">
-        <v>0.14699999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G8">
-        <v>280.85599999999999</v>
+        <v>277.267</v>
       </c>
       <c r="H8">
-        <v>0.1</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="I8">
-        <v>5.5E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="J8">
-        <v>1.8260000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="K8">
-        <v>6.8000000000000005E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="L8">
-        <v>-7.0000000000000001E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="M8">
-        <v>0.20799999999999999</v>
+        <v>0.21099999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="D9" s="4">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.14699999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G9">
-        <v>280.85599999999999</v>
+        <v>277.267</v>
       </c>
       <c r="H9">
-        <v>0.18099999999999999</v>
+        <v>0.183</v>
       </c>
       <c r="I9">
-        <v>4.8000000000000001E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="J9">
-        <v>3.7879999999999998</v>
+        <v>3.7240000000000002</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -815,28 +803,28 @@
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="M9">
-        <v>0.27400000000000002</v>
+        <v>0.27900000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>1E-3</v>
-      </c>
-      <c r="D10">
-        <v>0.84</v>
+        <v>17</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.78700000000000003</v>
       </c>
       <c r="E10">
-        <v>0.14699999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G10">
-        <v>280.85599999999999</v>
+        <v>277.267</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -845,10 +833,10 @@
         <v>1E-3</v>
       </c>
       <c r="J10">
-        <v>0.20200000000000001</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="K10">
-        <v>0.84</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="L10">
         <v>-2E-3</v>
@@ -860,162 +848,162 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="D11">
-        <v>0.76</v>
+        <v>18</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.69399999999999995</v>
       </c>
       <c r="E11">
-        <v>0.14699999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G11">
-        <v>280.85599999999999</v>
+        <v>277.267</v>
       </c>
       <c r="H11">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="I11">
-        <v>4.9000000000000002E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="J11">
-        <v>0.30599999999999999</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="K11">
-        <v>0.76</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="L11">
-        <v>-8.1000000000000003E-2</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="M11">
-        <v>0.111</v>
+        <v>0.11899999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>-1.5860000000000001</v>
-      </c>
-      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-1.589</v>
+      </c>
+      <c r="D12" s="4">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.23899999999999999</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>299.23099999999999</v>
+        <v>294.76900000000001</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="D13">
-        <v>8.0000000000000002E-3</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="D13" s="4">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E13">
-        <v>0.23899999999999999</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>299.23099999999999</v>
+        <v>294.76900000000001</v>
       </c>
       <c r="H13">
-        <v>0.157</v>
+        <v>0.159</v>
       </c>
       <c r="I13">
-        <v>5.7000000000000002E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="J13">
-        <v>2.7570000000000001</v>
+        <v>2.7130000000000001</v>
       </c>
       <c r="K13">
-        <v>6.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="L13">
-        <v>4.5999999999999999E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="M13">
-        <v>0.26900000000000002</v>
+        <v>0.27400000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="D14" s="4">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.23899999999999999</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>299.23099999999999</v>
+        <v>294.76900000000001</v>
       </c>
       <c r="H14">
-        <v>0.255</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="I14">
-        <v>4.7E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="J14">
-        <v>5.468</v>
+        <v>5.4089999999999998</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.16400000000000001</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="M14">
-        <v>0.34699999999999998</v>
+        <v>0.35299999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>-1E-3</v>
-      </c>
-      <c r="D15">
-        <v>0.86599999999999999</v>
+        <v>17</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.93400000000000005</v>
       </c>
       <c r="E15">
-        <v>0.23899999999999999</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>299.23099999999999</v>
+        <v>294.76900000000001</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1024,10 +1012,10 @@
         <v>1E-3</v>
       </c>
       <c r="J15">
-        <v>-0.16900000000000001</v>
+        <v>-8.3000000000000004E-2</v>
       </c>
       <c r="K15">
-        <v>0.86599999999999999</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="L15">
         <v>-3.0000000000000001E-3</v>
@@ -1039,162 +1027,162 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="D16">
-        <v>0.84299999999999997</v>
+        <v>18</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.75600000000000001</v>
       </c>
       <c r="E16">
-        <v>0.23899999999999999</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>299.23099999999999</v>
+        <v>294.76900000000001</v>
       </c>
       <c r="H16">
-        <v>0.01</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I16">
-        <v>5.0999999999999997E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="J16">
-        <v>0.19800000000000001</v>
+        <v>0.311</v>
       </c>
       <c r="K16">
-        <v>0.84299999999999997</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="L16">
-        <v>-9.0999999999999998E-2</v>
+        <v>-8.6999999999999994E-2</v>
       </c>
       <c r="M16">
-        <v>0.111</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>-0.99399999999999999</v>
-      </c>
-      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4">
+        <v>-0.98399999999999999</v>
+      </c>
+      <c r="D17" s="4">
         <v>2E-3</v>
       </c>
       <c r="E17">
-        <v>0.248</v>
+        <v>0.247</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>283.12299999999999</v>
+        <v>279.18099999999998</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="D18">
-        <v>0.41299999999999998</v>
+        <v>15</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.41899999999999998</v>
       </c>
       <c r="E18">
-        <v>0.248</v>
+        <v>0.247</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>283.12299999999999</v>
+        <v>279.18099999999998</v>
       </c>
       <c r="H18">
-        <v>4.3999999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="I18">
-        <v>5.3999999999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="J18">
-        <v>0.82199999999999995</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="K18">
-        <v>0.41099999999999998</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="L18">
-        <v>-6.0999999999999999E-2</v>
+        <v>-6.4000000000000001E-2</v>
       </c>
       <c r="M18">
-        <v>0.15</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="D19" s="4">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.248</v>
+        <v>0.247</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>283.12299999999999</v>
+        <v>279.18099999999998</v>
       </c>
       <c r="H19">
-        <v>0.247</v>
+        <v>0.249</v>
       </c>
       <c r="I19">
-        <v>4.5999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="J19">
-        <v>5.3390000000000004</v>
+        <v>5.2329999999999997</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.156</v>
+        <v>0.155</v>
       </c>
       <c r="M19">
-        <v>0.33700000000000002</v>
+        <v>0.34200000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>-1.2999999999999999E-2</v>
-      </c>
-      <c r="D20">
-        <v>7.0000000000000001E-3</v>
+        <v>17</v>
+      </c>
+      <c r="C20" s="4">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E20">
-        <v>0.248</v>
+        <v>0.247</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>283.12299999999999</v>
+        <v>279.18099999999998</v>
       </c>
       <c r="H20">
         <v>-3.0000000000000001E-3</v>
@@ -1203,10 +1191,10 @@
         <v>1E-3</v>
       </c>
       <c r="J20">
-        <v>-2.8159999999999998</v>
+        <v>-2.758</v>
       </c>
       <c r="K20">
-        <v>5.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="L20">
         <v>-6.0000000000000001E-3</v>
@@ -1218,162 +1206,162 @@
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="D21">
-        <v>6.4000000000000001E-2</v>
+        <v>18</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.378</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.05</v>
       </c>
       <c r="E21">
-        <v>0.248</v>
+        <v>0.247</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>283.12299999999999</v>
+        <v>279.18099999999998</v>
       </c>
       <c r="H21">
-        <v>9.4E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="I21">
-        <v>0.05</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="J21">
-        <v>1.8879999999999999</v>
+        <v>2.008</v>
       </c>
       <c r="K21">
-        <v>5.8999999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="L21">
-        <v>-4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="M21">
-        <v>0.191</v>
+        <v>0.20200000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22">
-        <v>-0.60299999999999998</v>
-      </c>
-      <c r="D22">
-        <v>0.107</v>
+        <v>14</v>
+      </c>
+      <c r="C22" s="4">
+        <v>-0.55800000000000005</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.14199999999999999</v>
       </c>
       <c r="E22">
-        <v>0.22600000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="F22">
         <v>1E-3</v>
       </c>
       <c r="G22">
-        <v>179.67599999999999</v>
+        <v>174.6</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23">
-        <v>-0.222</v>
-      </c>
-      <c r="D23">
-        <v>0.36899999999999999</v>
+        <v>15</v>
+      </c>
+      <c r="C23" s="4">
+        <v>-0.255</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.30599999999999999</v>
       </c>
       <c r="E23">
-        <v>0.22600000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="F23">
         <v>1E-3</v>
       </c>
       <c r="G23">
-        <v>179.67599999999999</v>
+        <v>174.6</v>
       </c>
       <c r="H23">
-        <v>-3.3000000000000002E-2</v>
+        <v>-3.9E-2</v>
       </c>
       <c r="I23">
-        <v>3.6999999999999998E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J23">
-        <v>-0.89900000000000002</v>
+        <v>-1.024</v>
       </c>
       <c r="K23">
-        <v>0.36899999999999999</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="L23">
-        <v>-0.106</v>
+        <v>-0.113</v>
       </c>
       <c r="M23">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="D24">
-        <v>1.2999999999999999E-2</v>
+        <v>16</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E24">
-        <v>0.22600000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="F24">
         <v>1E-3</v>
       </c>
       <c r="G24">
-        <v>179.67599999999999</v>
+        <v>174.6</v>
       </c>
       <c r="H24">
-        <v>9.6000000000000002E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I24">
         <v>3.9E-2</v>
       </c>
       <c r="J24">
-        <v>2.496</v>
+        <v>2.298</v>
       </c>
       <c r="K24">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L24">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="L24">
-        <v>2.1000000000000001E-2</v>
-      </c>
       <c r="M24">
-        <v>0.17199999999999999</v>
+        <v>0.16600000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25">
-        <v>-0.02</v>
-      </c>
-      <c r="D25">
-        <v>2E-3</v>
+        <v>17</v>
+      </c>
+      <c r="C25" s="4">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="D25" s="4">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E25">
-        <v>0.22600000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="F25">
         <v>1E-3</v>
       </c>
       <c r="G25">
-        <v>179.67599999999999</v>
+        <v>174.6</v>
       </c>
       <c r="H25">
         <v>-3.0000000000000001E-3</v>
@@ -1382,10 +1370,10 @@
         <v>1E-3</v>
       </c>
       <c r="J25">
-        <v>-3.0830000000000002</v>
+        <v>-2.9620000000000002</v>
       </c>
       <c r="K25">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="L25">
         <v>-5.0000000000000001E-3</v>
@@ -1397,162 +1385,162 @@
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26">
-        <v>-3.6999999999999998E-2</v>
-      </c>
-      <c r="D26">
-        <v>0.871</v>
+        <v>18</v>
+      </c>
+      <c r="C26" s="4">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.76800000000000002</v>
       </c>
       <c r="E26">
-        <v>0.22600000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="F26">
         <v>1E-3</v>
       </c>
       <c r="G26">
-        <v>179.67599999999999</v>
+        <v>174.6</v>
       </c>
       <c r="H26">
-        <v>-6.0000000000000001E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="I26">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="J26">
-        <v>-0.16300000000000001</v>
+        <v>-0.29499999999999998</v>
       </c>
       <c r="K26">
-        <v>0.871</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="L26">
-        <v>-7.2999999999999995E-2</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="M26">
-        <v>6.2E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27">
-        <v>-1.522</v>
-      </c>
-      <c r="D27">
+        <v>14</v>
+      </c>
+      <c r="C27" s="4">
+        <v>-1.5249999999999999</v>
+      </c>
+      <c r="D27" s="4">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.24099999999999999</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>277.93700000000001</v>
+        <v>274.23</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="D28">
-        <v>0.496</v>
+        <v>15</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.52900000000000003</v>
       </c>
       <c r="E28">
-        <v>0.24099999999999999</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>277.93700000000001</v>
+        <v>274.23</v>
       </c>
       <c r="H28">
-        <v>3.6999999999999998E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="I28">
-        <v>5.3999999999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="J28">
-        <v>0.68300000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="K28">
-        <v>0.495</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="L28">
-        <v>-6.9000000000000006E-2</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="M28">
-        <v>0.14199999999999999</v>
+        <v>0.14299999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="D29">
+        <v>16</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="D29" s="4">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0.24099999999999999</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>277.93700000000001</v>
+        <v>274.23</v>
       </c>
       <c r="H29">
-        <v>0.28299999999999997</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="I29">
-        <v>4.5999999999999999E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="J29">
-        <v>6.1340000000000003</v>
+        <v>6.101</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0.193</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="M29">
-        <v>0.373</v>
+        <v>0.38100000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30">
+        <v>17</v>
+      </c>
+      <c r="C30" s="4">
         <v>-1E-3</v>
       </c>
-      <c r="D30">
-        <v>0.75900000000000001</v>
+      <c r="D30" s="4">
+        <v>0.84299999999999997</v>
       </c>
       <c r="E30">
-        <v>0.24099999999999999</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>277.93700000000001</v>
+        <v>274.23</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1561,10 +1549,10 @@
         <v>1E-3</v>
       </c>
       <c r="J30">
-        <v>-0.307</v>
+        <v>-0.19800000000000001</v>
       </c>
       <c r="K30">
-        <v>0.75900000000000001</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="L30">
         <v>-3.0000000000000001E-3</v>
@@ -1576,162 +1564,162 @@
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="D31">
-        <v>0.747</v>
+        <v>18</v>
+      </c>
+      <c r="C31" s="4">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.7</v>
       </c>
       <c r="E31">
-        <v>0.24099999999999999</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>277.93700000000001</v>
+        <v>274.23</v>
       </c>
       <c r="H31">
-        <v>1.6E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="I31">
-        <v>4.9000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J31">
-        <v>0.32200000000000001</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="K31">
-        <v>0.747</v>
+        <v>0.7</v>
       </c>
       <c r="L31">
-        <v>-0.08</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="M31">
-        <v>0.112</v>
+        <v>0.11799999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32">
-        <v>-1.1339999999999999</v>
-      </c>
-      <c r="D32">
-        <v>7.0000000000000001E-3</v>
+        <v>14</v>
+      </c>
+      <c r="C32" s="4">
+        <v>-1.125</v>
+      </c>
+      <c r="D32" s="4">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E32">
-        <v>0.25800000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>167.12700000000001</v>
+        <v>165.995</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33">
-        <v>-8.2000000000000003E-2</v>
-      </c>
-      <c r="D33">
-        <v>0.753</v>
+        <v>15</v>
+      </c>
+      <c r="C33" s="4">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.752</v>
       </c>
       <c r="E33">
-        <v>0.25800000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>167.12700000000001</v>
+        <v>165.995</v>
       </c>
       <c r="H33">
-        <v>-1.0999999999999999E-2</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="I33">
-        <v>3.5999999999999997E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J33">
-        <v>-0.315</v>
+        <v>-0.316</v>
       </c>
       <c r="K33">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="L33">
-        <v>-8.3000000000000004E-2</v>
+        <v>-8.5999999999999993E-2</v>
       </c>
       <c r="M33">
-        <v>0.06</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="D34">
+        <v>16</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="D34" s="4">
         <v>2E-3</v>
       </c>
       <c r="E34">
-        <v>0.25800000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>167.12700000000001</v>
+        <v>165.995</v>
       </c>
       <c r="H34">
-        <v>0.126</v>
+        <v>0.127</v>
       </c>
       <c r="I34">
-        <v>4.1000000000000002E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="J34">
-        <v>3.097</v>
+        <v>3.0350000000000001</v>
       </c>
       <c r="K34">
         <v>2E-3</v>
       </c>
       <c r="L34">
-        <v>4.5999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="M34">
-        <v>0.20599999999999999</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-      <c r="D35">
-        <v>6.0000000000000001E-3</v>
+        <v>17</v>
+      </c>
+      <c r="C35" s="4">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="D35" s="4">
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E35">
-        <v>0.25800000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>167.12700000000001</v>
+        <v>165.995</v>
       </c>
       <c r="H35">
         <v>-2E-3</v>
@@ -1740,10 +1728,10 @@
         <v>1E-3</v>
       </c>
       <c r="J35">
-        <v>-2.7309999999999999</v>
+        <v>-2.6880000000000002</v>
       </c>
       <c r="K35">
-        <v>6.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="L35">
         <v>-4.0000000000000001E-3</v>
@@ -1755,174 +1743,174 @@
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36">
-        <v>0.13</v>
-      </c>
-      <c r="D36">
-        <v>0.58799999999999997</v>
+        <v>18</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.54600000000000004</v>
       </c>
       <c r="E36">
-        <v>0.25800000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>167.12700000000001</v>
+        <v>165.995</v>
       </c>
       <c r="H36">
-        <v>1.7999999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="I36">
-        <v>3.4000000000000002E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J36">
-        <v>0.54100000000000004</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="K36">
-        <v>0.58799999999999997</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="L36">
-        <v>-4.8000000000000001E-2</v>
+        <v>-4.7E-2</v>
       </c>
       <c r="M36">
-        <v>8.4000000000000005E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37">
+        <v>14</v>
+      </c>
+      <c r="C37" s="4">
         <v>-1.7609999999999999</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="4">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0.182</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>280.28300000000002</v>
+        <v>276.43299999999999</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38">
-        <v>0.37</v>
-      </c>
-      <c r="D38">
-        <v>0.08</v>
+        <v>15</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="D38" s="4">
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="E38">
-        <v>0.182</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>280.28300000000002</v>
+        <v>276.43299999999999</v>
       </c>
       <c r="H38">
-        <v>9.7000000000000003E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="I38">
-        <v>5.5E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="J38">
-        <v>1.764</v>
+        <v>1.7250000000000001</v>
       </c>
       <c r="K38">
-        <v>7.8E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="L38">
-        <v>-1.0999999999999999E-2</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="M38">
-        <v>0.20499999999999999</v>
+        <v>0.20899999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="D39">
+        <v>16</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="D39" s="4">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.182</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>280.28300000000002</v>
+        <v>276.43299999999999</v>
       </c>
       <c r="H39">
-        <v>0.21099999999999999</v>
+        <v>0.214</v>
       </c>
       <c r="I39">
-        <v>4.8000000000000001E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="J39">
-        <v>4.43</v>
+        <v>4.375</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0.11700000000000001</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="M39">
-        <v>0.30399999999999999</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40">
+        <v>17</v>
+      </c>
+      <c r="C40" s="4">
         <v>2E-3</v>
       </c>
-      <c r="D40">
-        <v>0.68300000000000005</v>
+      <c r="D40" s="4">
+        <v>0.63100000000000001</v>
       </c>
       <c r="E40">
-        <v>0.182</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>280.28300000000002</v>
+        <v>276.43299999999999</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I40">
         <v>1E-3</v>
       </c>
       <c r="J40">
-        <v>0.40799999999999997</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="K40">
-        <v>0.68300000000000005</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="L40">
         <v>-2E-3</v>
@@ -1934,90 +1922,90 @@
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="D41">
-        <v>0.375</v>
+        <v>18</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.185</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.33300000000000002</v>
       </c>
       <c r="E41">
-        <v>0.182</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>280.28300000000002</v>
+        <v>276.43299999999999</v>
       </c>
       <c r="H41">
-        <v>4.3999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="I41">
-        <v>0.05</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="J41">
-        <v>0.89</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="K41">
-        <v>0.373</v>
+        <v>0.33</v>
       </c>
       <c r="L41">
-        <v>-5.2999999999999999E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="M41">
-        <v>0.14099999999999999</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42">
-        <v>-1.6120000000000001</v>
-      </c>
-      <c r="D42">
+        <v>14</v>
+      </c>
+      <c r="C42" s="4">
+        <v>-1.6080000000000001</v>
+      </c>
+      <c r="D42" s="4">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0.20799999999999999</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G42">
-        <v>200.10400000000001</v>
+        <v>198.32499999999999</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="D43">
+        <v>15</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="D43" s="4">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="E43">
-        <v>0.20799999999999999</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G43">
-        <v>200.10400000000001</v>
+        <v>198.32499999999999</v>
       </c>
       <c r="H43">
-        <v>9.6000000000000002E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="I43">
-        <v>4.8000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J43">
         <v>1.9990000000000001</v>
@@ -2029,67 +2017,67 @@
         <v>2E-3</v>
       </c>
       <c r="M43">
-        <v>0.19</v>
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="D44">
-        <v>6.0000000000000001E-3</v>
+        <v>16</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D44" s="4">
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E44">
-        <v>0.20799999999999999</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G44">
-        <v>200.10400000000001</v>
+        <v>198.32499999999999</v>
       </c>
       <c r="H44">
-        <v>0.114</v>
+        <v>0.115</v>
       </c>
       <c r="I44">
-        <v>4.1000000000000002E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="J44">
-        <v>2.76</v>
+        <v>2.698</v>
       </c>
       <c r="K44">
-        <v>6.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="L44">
-        <v>3.3000000000000002E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="M44">
-        <v>0.19500000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45">
+        <v>17</v>
+      </c>
+      <c r="C45" s="4">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="D45">
-        <v>4.2000000000000003E-2</v>
+      <c r="D45" s="4">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E45">
-        <v>0.20799999999999999</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G45">
-        <v>200.10400000000001</v>
+        <v>198.32499999999999</v>
       </c>
       <c r="H45">
         <v>-2E-3</v>
@@ -2098,10 +2086,10 @@
         <v>1E-3</v>
       </c>
       <c r="J45">
-        <v>-2.0489999999999999</v>
+        <v>-2.0190000000000001</v>
       </c>
       <c r="K45">
-        <v>0.04</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="L45">
         <v>-4.0000000000000001E-3</v>
@@ -2113,162 +2101,162 @@
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="D46">
-        <v>0.36699999999999999</v>
+        <v>18</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.222</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.32200000000000001</v>
       </c>
       <c r="E46">
-        <v>0.20799999999999999</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G46">
-        <v>200.10400000000001</v>
+        <v>198.32499999999999</v>
       </c>
       <c r="H46">
-        <v>3.5000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I46">
-        <v>3.9E-2</v>
+        <v>0.04</v>
       </c>
       <c r="J46">
-        <v>0.90300000000000002</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="K46">
-        <v>0.36599999999999999</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="L46">
-        <v>-4.1000000000000002E-2</v>
+        <v>-3.9E-2</v>
       </c>
       <c r="M46">
-        <v>0.111</v>
+        <v>0.11799999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47">
-        <v>-1.2709999999999999</v>
-      </c>
-      <c r="D47">
+        <v>14</v>
+      </c>
+      <c r="C47" s="4">
+        <v>-1.266</v>
+      </c>
+      <c r="D47" s="4">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0.26300000000000001</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>295.76799999999997</v>
+        <v>291.08300000000003</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="D48">
+        <v>15</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="D48" s="4">
         <v>2E-3</v>
       </c>
       <c r="E48">
-        <v>0.26300000000000001</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>295.76799999999997</v>
+        <v>291.08300000000003</v>
       </c>
       <c r="H48">
-        <v>0.191</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="I48">
-        <v>5.7000000000000002E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="J48">
-        <v>3.3359999999999999</v>
+        <v>3.3370000000000002</v>
       </c>
       <c r="K48">
         <v>1E-3</v>
       </c>
       <c r="L48">
-        <v>7.9000000000000001E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M48">
-        <v>0.30399999999999999</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="D49">
+        <v>16</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.748</v>
+      </c>
+      <c r="D49" s="4">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0.26300000000000001</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>295.76799999999997</v>
+        <v>291.08300000000003</v>
       </c>
       <c r="H49">
         <v>0.21199999999999999</v>
       </c>
       <c r="I49">
-        <v>4.8000000000000001E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="J49">
-        <v>4.4530000000000003</v>
+        <v>4.3360000000000003</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0.11899999999999999</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="M49">
-        <v>0.30499999999999999</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50">
+        <v>17</v>
+      </c>
+      <c r="C50" s="4">
         <v>-0.01</v>
       </c>
-      <c r="D50">
-        <v>0.02</v>
+      <c r="D50" s="4">
+        <v>2.3E-2</v>
       </c>
       <c r="E50">
-        <v>0.26300000000000001</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>295.76799999999997</v>
+        <v>291.08300000000003</v>
       </c>
       <c r="H50">
         <v>-3.0000000000000001E-3</v>
@@ -2277,59 +2265,84 @@
         <v>1E-3</v>
       </c>
       <c r="J50">
-        <v>-2.3879999999999999</v>
+        <v>-2.3490000000000002</v>
       </c>
       <c r="K50">
-        <v>1.7000000000000001E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="L50">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="M50">
-        <v>-1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="D51">
-        <v>8.4000000000000005E-2</v>
+        <v>18</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.06</v>
       </c>
       <c r="E51">
-        <v>0.26300000000000001</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>295.76799999999997</v>
+        <v>291.08300000000003</v>
       </c>
       <c r="H51">
-        <v>8.8999999999999996E-2</v>
+        <v>0.1</v>
       </c>
       <c r="I51">
-        <v>5.0999999999999997E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="J51">
-        <v>1.75</v>
+        <v>1.9159999999999999</v>
       </c>
       <c r="K51">
-        <v>0.08</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L51">
-        <v>-1.0999999999999999E-2</v>
+        <v>-2E-3</v>
       </c>
       <c r="M51">
-        <v>0.189</v>
-      </c>
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A6"/>
     <mergeCell ref="A42:A46"/>
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A7:A11"/>
@@ -2339,7 +2352,6 @@
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
